--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>10343.78756473365</v>
+        <v>35787.93437182512</v>
       </c>
       <c r="R2">
-        <v>93094.08808260287</v>
+        <v>322091.409346426</v>
       </c>
       <c r="S2">
-        <v>0.05094783517614512</v>
+        <v>0.121939083795095</v>
       </c>
       <c r="T2">
-        <v>0.05094783517614513</v>
+        <v>0.121939083795095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>15891.19919674062</v>
+        <v>29471.60476304496</v>
       </c>
       <c r="R3">
-        <v>143020.7927706656</v>
+        <v>265244.4428674047</v>
       </c>
       <c r="S3">
-        <v>0.07827134812659683</v>
+        <v>0.1004176560021334</v>
       </c>
       <c r="T3">
-        <v>0.07827134812659685</v>
+        <v>0.1004176560021334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>7940.721134606929</v>
+        <v>17003.10190036989</v>
       </c>
       <c r="R4">
-        <v>71466.49021146237</v>
+        <v>153027.917103329</v>
       </c>
       <c r="S4">
-        <v>0.03911164542135521</v>
+        <v>0.05793412511223418</v>
       </c>
       <c r="T4">
-        <v>0.03911164542135521</v>
+        <v>0.05793412511223417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>12639.06897671708</v>
+        <v>17185.96464375279</v>
       </c>
       <c r="R5">
-        <v>113751.6207904537</v>
+        <v>154673.6817937751</v>
       </c>
       <c r="S5">
-        <v>0.06225313493493925</v>
+        <v>0.05855718748729889</v>
       </c>
       <c r="T5">
-        <v>0.06225313493493926</v>
+        <v>0.05855718748729888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>6348.8790487379</v>
+        <v>12945.00883039936</v>
       </c>
       <c r="R6">
-        <v>57139.9114386411</v>
+        <v>116505.0794735942</v>
       </c>
       <c r="S6">
-        <v>0.03127110270817985</v>
+        <v>0.04410711442851602</v>
       </c>
       <c r="T6">
-        <v>0.03127110270817985</v>
+        <v>0.04410711442851601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>8334.629405459649</v>
+        <v>21658.11781242718</v>
       </c>
       <c r="R7">
-        <v>75011.66464913684</v>
+        <v>194923.0603118446</v>
       </c>
       <c r="S7">
-        <v>0.04105182193139371</v>
+        <v>0.07379501189799775</v>
       </c>
       <c r="T7">
-        <v>0.04105182193139372</v>
+        <v>0.07379501189799775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>21579.65746415257</v>
+        <v>40258.21117844053</v>
       </c>
       <c r="R8">
-        <v>194216.9171773731</v>
+        <v>362323.9006059648</v>
       </c>
       <c r="S8">
-        <v>0.1062895795916923</v>
+        <v>0.1371705149373822</v>
       </c>
       <c r="T8">
-        <v>0.1062895795916924</v>
+        <v>0.1371705149373822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>33152.90779264078</v>
@@ -1013,10 +1013,10 @@
         <v>298376.1701337671</v>
       </c>
       <c r="S9">
-        <v>0.1632930753129685</v>
+        <v>0.1129608420362071</v>
       </c>
       <c r="T9">
-        <v>0.1632930753129686</v>
+        <v>0.1129608420362071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>16566.27623399832</v>
+        <v>19126.96217338921</v>
       </c>
       <c r="R10">
-        <v>149096.4861059849</v>
+        <v>172142.6595605028</v>
       </c>
       <c r="S10">
-        <v>0.08159640806331367</v>
+        <v>0.0651706862702502</v>
       </c>
       <c r="T10">
-        <v>0.08159640806331367</v>
+        <v>0.0651706862702502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>26368.17292277551</v>
+        <v>19332.66633231864</v>
       </c>
       <c r="R11">
-        <v>237313.5563049795</v>
+        <v>173993.9969908677</v>
       </c>
       <c r="S11">
-        <v>0.1298751854249098</v>
+        <v>0.06587157546972418</v>
       </c>
       <c r="T11">
-        <v>0.1298751854249098</v>
+        <v>0.06587157546972418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>13245.30635375888</v>
+        <v>14561.97202628372</v>
       </c>
       <c r="R12">
-        <v>119207.7571838299</v>
+        <v>131057.7482365534</v>
       </c>
       <c r="S12">
-        <v>0.06523912838944999</v>
+        <v>0.0496165413931456</v>
       </c>
       <c r="T12">
-        <v>0.06523912838944999</v>
+        <v>0.0496165413931456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>17388.06472337912</v>
+        <v>24363.43689359939</v>
       </c>
       <c r="R13">
-        <v>156492.5825104121</v>
+        <v>219270.9320423945</v>
       </c>
       <c r="S13">
-        <v>0.08564408830080936</v>
+        <v>0.08301275904998864</v>
       </c>
       <c r="T13">
-        <v>0.08564408830080937</v>
+        <v>0.08301275904998864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>18.445017409368</v>
+        <v>31.12555390348089</v>
       </c>
       <c r="R14">
-        <v>166.005156684312</v>
+        <v>280.129985131328</v>
       </c>
       <c r="S14">
-        <v>9.08500586378589E-05</v>
+        <v>0.0001060531039923147</v>
       </c>
       <c r="T14">
-        <v>9.085005863785892E-05</v>
+        <v>0.0001060531039923147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>28.337148651328</v>
+        <v>25.63210307539911</v>
       </c>
       <c r="R15">
-        <v>255.034337861952</v>
+        <v>230.688927678592</v>
       </c>
       <c r="S15">
-        <v>0.0001395732820124827</v>
+        <v>8.733544474185327E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001395732820124827</v>
+        <v>8.733544474185327E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>14.159875060672</v>
+        <v>14.78797181272889</v>
       </c>
       <c r="R16">
-        <v>127.438875546048</v>
+        <v>133.09174631456</v>
       </c>
       <c r="S16">
-        <v>6.974379318901848E-05</v>
+        <v>5.038658323492084E-05</v>
       </c>
       <c r="T16">
-        <v>6.974379318901848E-05</v>
+        <v>5.038658323492084E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>22.5379577698</v>
+        <v>14.94701156386311</v>
       </c>
       <c r="R17">
-        <v>202.8416199282</v>
+        <v>134.523104074768</v>
       </c>
       <c r="S17">
-        <v>0.0001110096423071945</v>
+        <v>5.092847429068334E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001110096423071946</v>
+        <v>5.092847429068334E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>11.321306035248</v>
+        <v>11.25855898654044</v>
       </c>
       <c r="R18">
-        <v>101.891754317232</v>
+        <v>101.327030878864</v>
       </c>
       <c r="S18">
-        <v>5.576255605142683E-05</v>
+        <v>3.836092783138078E-05</v>
       </c>
       <c r="T18">
-        <v>5.576255605142683E-05</v>
+        <v>3.836092783138078E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>14.86229135336</v>
+        <v>18.83654156774578</v>
       </c>
       <c r="R19">
-        <v>133.76062218024</v>
+        <v>169.528874109712</v>
       </c>
       <c r="S19">
-        <v>7.320351133200497E-05</v>
+        <v>6.418114543228399E-05</v>
       </c>
       <c r="T19">
-        <v>7.320351133200499E-05</v>
+        <v>6.418114543228399E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>2090.419032420618</v>
+        <v>2135.596631855924</v>
       </c>
       <c r="R20">
-        <v>18813.77129178556</v>
+        <v>19220.36968670332</v>
       </c>
       <c r="S20">
-        <v>0.01029625982226799</v>
+        <v>0.007276550077989921</v>
       </c>
       <c r="T20">
-        <v>0.010296259822268</v>
+        <v>0.007276550077989921</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>3211.518512049915</v>
+        <v>1758.678196216275</v>
       </c>
       <c r="R21">
-        <v>28903.66660844924</v>
+        <v>15828.10376594648</v>
       </c>
       <c r="S21">
-        <v>0.01581818214972893</v>
+        <v>0.005992287951267032</v>
       </c>
       <c r="T21">
-        <v>0.01581818214972893</v>
+        <v>0.005992287951267032</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1604.773347001195</v>
+        <v>1014.637133629045</v>
       </c>
       <c r="R22">
-        <v>14442.96012301076</v>
+        <v>9131.734202661401</v>
       </c>
       <c r="S22">
-        <v>0.007904235026717017</v>
+        <v>0.003457140643373136</v>
       </c>
       <c r="T22">
-        <v>0.007904235026717017</v>
+        <v>0.003457140643373136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>2554.28199541593</v>
+        <v>1025.549220781186</v>
       </c>
       <c r="R23">
-        <v>22988.53795874337</v>
+        <v>9229.942987030672</v>
       </c>
       <c r="S23">
-        <v>0.01258099485139579</v>
+        <v>0.0034943210488081</v>
       </c>
       <c r="T23">
-        <v>0.01258099485139579</v>
+        <v>0.0034943210488081</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1283.071361912676</v>
+        <v>772.4759124212122</v>
       </c>
       <c r="R24">
-        <v>11547.64225721409</v>
+        <v>6952.28321179091</v>
       </c>
       <c r="S24">
-        <v>0.006319707153386645</v>
+        <v>0.002632032461995903</v>
       </c>
       <c r="T24">
-        <v>0.006319707153386646</v>
+        <v>0.002632032461995903</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>1684.379907099728</v>
+        <v>1292.418918957559</v>
       </c>
       <c r="R25">
-        <v>15159.41916389755</v>
+        <v>11631.77027061803</v>
       </c>
       <c r="S25">
-        <v>0.008296333363758256</v>
+        <v>0.004403617633243546</v>
       </c>
       <c r="T25">
-        <v>0.008296333363758257</v>
+        <v>0.004403617633243546</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>73.27620842940699</v>
+        <v>136.0455478168702</v>
       </c>
       <c r="R26">
-        <v>659.4858758646629</v>
+        <v>1224.409930351832</v>
       </c>
       <c r="S26">
-        <v>0.0003609184900628238</v>
+        <v>0.0004635436424699389</v>
       </c>
       <c r="T26">
-        <v>0.0003609184900628239</v>
+        <v>0.0004635436424699389</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>112.5745107627387</v>
+        <v>112.0344240428497</v>
       </c>
       <c r="R27">
-        <v>1013.170596864648</v>
+        <v>1008.309816385648</v>
       </c>
       <c r="S27">
-        <v>0.0005544804147882622</v>
+        <v>0.0003817313086404757</v>
       </c>
       <c r="T27">
-        <v>0.0005544804147882624</v>
+        <v>0.0003817313086404757</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>56.25269595859466</v>
+        <v>64.63620639818222</v>
       </c>
       <c r="R28">
-        <v>506.274263627352</v>
+        <v>581.7258575836399</v>
       </c>
       <c r="S28">
-        <v>0.0002770699865959673</v>
+        <v>0.0002202328781062601</v>
       </c>
       <c r="T28">
-        <v>0.0002770699865959673</v>
+        <v>0.0002202328781062601</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>89.53616331499167</v>
+        <v>65.33134744321578</v>
       </c>
       <c r="R29">
-        <v>805.825469834925</v>
+        <v>587.982126988942</v>
       </c>
       <c r="S29">
-        <v>0.0004410061268494417</v>
+        <v>0.000222601409948838</v>
       </c>
       <c r="T29">
-        <v>0.0004410061268494418</v>
+        <v>0.000222601409948838</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>44.97596084190199</v>
+        <v>49.2096246608851</v>
       </c>
       <c r="R30">
-        <v>404.783647577118</v>
+        <v>442.886621947966</v>
       </c>
       <c r="S30">
-        <v>0.0002215269624904544</v>
+        <v>0.0001676703797068806</v>
       </c>
       <c r="T30">
-        <v>0.0002215269624904544</v>
+        <v>0.0001676703797068806</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>59.04317327422334</v>
+        <v>82.33195221218644</v>
       </c>
       <c r="R31">
-        <v>531.38855946801</v>
+        <v>740.987569909678</v>
       </c>
       <c r="S31">
-        <v>0.0002908143502973386</v>
+        <v>0.0002805270266651483</v>
       </c>
       <c r="T31">
-        <v>0.0002908143502973387</v>
+        <v>0.0002805270266651483</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>42.82125069645166</v>
+        <v>4.497484076885778</v>
       </c>
       <c r="R32">
-        <v>385.391256268065</v>
+        <v>40.477356691972</v>
       </c>
       <c r="S32">
-        <v>0.0002109140398394662</v>
+        <v>1.532413360381693E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002109140398394662</v>
+        <v>1.532413360381693E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>65.78644625213776</v>
+        <v>3.703708399734222</v>
       </c>
       <c r="R33">
-        <v>592.0780162692399</v>
+        <v>33.333375597608</v>
       </c>
       <c r="S33">
-        <v>0.0003240280216026023</v>
+        <v>1.261952713491456E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003240280216026024</v>
+        <v>1.261952713491456E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>32.87302724341778</v>
+        <v>2.136786640437778</v>
       </c>
       <c r="R34">
-        <v>295.85724519076</v>
+        <v>19.23107976394</v>
       </c>
       <c r="S34">
-        <v>0.0001619145369389363</v>
+        <v>7.280604756158038E-06</v>
       </c>
       <c r="T34">
-        <v>0.0001619145369389363</v>
+        <v>7.280604756158038E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>52.32326532565278</v>
+        <v>2.159767074795222</v>
       </c>
       <c r="R35">
-        <v>470.909387930875</v>
+        <v>19.437903673157</v>
       </c>
       <c r="S35">
-        <v>0.0002577157623362027</v>
+        <v>7.358905254914017E-06</v>
       </c>
       <c r="T35">
-        <v>0.0002577157623362027</v>
+        <v>7.358905254914017E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>26.28311338434333</v>
+        <v>1.626804455517889</v>
       </c>
       <c r="R36">
-        <v>236.54802045909</v>
+        <v>14.641240099661</v>
       </c>
       <c r="S36">
-        <v>0.0001294562287016514</v>
+        <v>5.542958773720172E-06</v>
       </c>
       <c r="T36">
-        <v>0.0001294562287016514</v>
+        <v>5.542958773720172E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>34.50373018583889</v>
+        <v>2.721784358512556</v>
       </c>
       <c r="R37">
-        <v>310.5335716725501</v>
+        <v>24.496059226613</v>
       </c>
       <c r="S37">
-        <v>0.000169946486958384</v>
+        <v>9.273848764686766E-06</v>
       </c>
       <c r="T37">
-        <v>0.0001699464869583841</v>
+        <v>9.273848764686766E-06</v>
       </c>
     </row>
   </sheetData>
